--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533742.846129925</v>
+        <v>1637922.480580997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>364.6228236450876</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.750814577927308</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>57.00358340533273</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>110.0621485989114</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>357.5172482913128</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>214.2098670433659</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>97.94553054490801</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.81484415758</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>256.6438019796656</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.00673497013326</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>28.95303003563124</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.7072979240949</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>112.528443452332</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523316</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.227129859624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>38.21875275157927</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.831980181942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>61.66004604094438</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2312.009746557805</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="C2" t="n">
-        <v>1943.047229617393</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.781531010643</v>
+        <v>1302.873252607111</v>
       </c>
       <c r="E2" t="n">
-        <v>1198.993278412398</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>788.0073736227907</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>372.9349234677872</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>75.35132307655442</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2698.609586621927</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2698.609586621927</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.126594326469</v>
+        <v>2245.70932928292</v>
       </c>
       <c r="C4" t="n">
-        <v>686.126594326469</v>
+        <v>2076.773146355013</v>
       </c>
       <c r="D4" t="n">
-        <v>536.0099549141332</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="E4" t="n">
-        <v>536.0099549141332</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="F4" t="n">
-        <v>389.1200074162228</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>221.4171707909418</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>2759.324260730338</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>2648.15037325669</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699991</v>
+        <v>2648.15037325669</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.126594326469</v>
+        <v>2427.35779411316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3109.232218535064</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2778.169331191494</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2425.400675921379</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.9349176603</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.6070935315613</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>459.5772761350097</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>459.5772761350097</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>311.6641825526166</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4753,22 +4755,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.280305378586</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.290754480569</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.255558361801</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4838,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.7003711548124</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C10" t="n">
-        <v>392.7641882269055</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>242.6475488145698</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>242.6475488145698</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>95.75760131665942</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>95.75760131665942</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>95.75760131665942</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983425</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y10" t="n">
-        <v>561.7003711548124</v>
+        <v>653.2087215510563</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5124,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>132.8188155394338</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>132.8188155394338</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>4623.787448650995</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>4334.712221995193</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>4262.384993990607</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953646</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>2804.652647788941</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>2635.716464861034</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>2485.599825448699</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4670.716426881532</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4487.861592536437</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4268.260127559378</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>3979.184900903576</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3724.500412697689</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3435.083242660729</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3207.093691762711</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>2986.301112619181</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>3113.560578231863</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>2944.624395303956</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>4577.168058002299</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>4288.092831346497</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>4033.408343140611</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>3743.99117310365</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>3516.001622205633</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3295.209043062103</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>1500.747069396417</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,16 +6715,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,31 +7429,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820192</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783231</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327595</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048526</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925169</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>146.8157004124961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>42.65370535201819</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823013</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>104.8770068749562</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.3575234924707615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>213.9188905722487</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>84.77391660562479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26338,19 +26340,19 @@
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993965.5468653588</v>
+        <v>-993965.5468653586</v>
       </c>
       <c r="C6" t="n">
+        <v>334779.1988622338</v>
+      </c>
+      <c r="D6" t="n">
         <v>334779.1988622339</v>
       </c>
-      <c r="D6" t="n">
-        <v>334779.198862234</v>
-      </c>
       <c r="E6" t="n">
-        <v>86333.32195043589</v>
+        <v>86333.32195043594</v>
       </c>
       <c r="F6" t="n">
-        <v>411745.783757791</v>
+        <v>411745.7837577909</v>
       </c>
       <c r="G6" t="n">
-        <v>411745.783757791</v>
+        <v>411745.7837577912</v>
       </c>
       <c r="H6" t="n">
-        <v>411745.783757791</v>
+        <v>411745.7837577907</v>
       </c>
       <c r="I6" t="n">
         <v>411745.783757791</v>
@@ -26546,19 +26548,19 @@
         <v>194214.5813605135</v>
       </c>
       <c r="K6" t="n">
+        <v>411745.7837577909</v>
+      </c>
+      <c r="L6" t="n">
         <v>411745.783757791</v>
       </c>
-      <c r="L6" t="n">
-        <v>411745.7837577912</v>
-      </c>
       <c r="M6" t="n">
-        <v>326690.7558222793</v>
+        <v>326690.7558222794</v>
       </c>
       <c r="N6" t="n">
         <v>411745.783757791</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.7837577909</v>
+        <v>411745.7837577908</v>
       </c>
       <c r="P6" t="n">
         <v>411745.7837577909</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26807,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>17.30754642717415</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>32.82611519499864</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>87.75143150898805</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>176.4608497376796</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.755643479694754</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>36.78530491553607</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>47.47551747802324</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.76980919451482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194508</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>113.0872986988034</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.825245211804</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>67.39939037420686</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31844,10 +31846,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>669.466988500007</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>658.2124561388956</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>526.8707440555626</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>526.8707440555623</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637922.480580997</v>
+        <v>1633909.870567004</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>66.76195975981727</v>
       </c>
       <c r="E2" t="n">
-        <v>364.6228236450876</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>131.3542190999263</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>110.0621485989114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>357.5172482913128</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>152.5938874041449</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>97.94553054490801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>47.41254713315882</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>256.6438019796656</v>
+        <v>46.42246812243229</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.00673497013326</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>83.29550035394011</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>206.690869499235</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189153</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>112.528443452332</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>112.5284434523316</v>
+        <v>30.06830131405845</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>67.63081821228944</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4312223122549</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="41">
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>39.52129633183176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213862</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.138951213862</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.873252607111</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213862</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2245.70932928292</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>2076.773146355013</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>1926.656506942677</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>1778.743413360284</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360284</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3014.008748936224</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V4" t="n">
-        <v>2759.324260730338</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W4" t="n">
-        <v>2648.15037325669</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X4" t="n">
-        <v>2648.15037325669</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>2427.35779411316</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>2201.719078084899</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1832.756561144487</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1474.490862537737</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1088.702609939492</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>677.7167051498848</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>262.6442549948812</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>2588.318918149021</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>2588.318918149021</v>
       </c>
     </row>
     <row r="6">
@@ -4637,28 +4637,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.5134590629166</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>459.5772761350097</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>459.5772761350097</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>311.6641825526166</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971664</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.944053934704</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1030.954503036686</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.1619238931563</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.7574741064773</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.2087215510563</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5281,22 +5281,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048574</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>446.9048623224643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>300.0149148245539</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098242</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819173</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695815</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871884</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2804.652647788941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2635.716464861034</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2485.599825448699</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4670.716426881532</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4487.861592536437</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4268.260127559378</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3979.184900903576</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3724.500412697689</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3435.083242660729</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3207.093691762711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>2986.301112619181</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6235,16 +6235,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.560578231863</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.624395303956</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309227</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309227</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4577.168058002299</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.092831346497</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.408343140611</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3743.99117310365</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.001622205633</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.209043062103</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2333.297989183966</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,28 +6934,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947871</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.26785128072171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>42.65370535201819</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89260457059964</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844823013</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>104.8770068749562</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>104.8770068749567</v>
+        <v>187.3371490132298</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>218.5536561769547</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>61.40075786968241</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
@@ -26328,34 +26328,34 @@
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.712987108883681e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972779</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.438655772290076e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26420,7 +26420,7 @@
         <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815707</v>
@@ -26524,46 +26524,46 @@
         <v>-993965.5468653586</v>
       </c>
       <c r="C6" t="n">
-        <v>334779.1988622338</v>
+        <v>334779.1988622341</v>
       </c>
       <c r="D6" t="n">
-        <v>334779.1988622339</v>
+        <v>334779.1988622337</v>
       </c>
       <c r="E6" t="n">
-        <v>86333.32195043594</v>
+        <v>85985.94269607902</v>
       </c>
       <c r="F6" t="n">
-        <v>411745.7837577909</v>
+        <v>411398.404503434</v>
       </c>
       <c r="G6" t="n">
-        <v>411745.7837577912</v>
+        <v>411398.404503434</v>
       </c>
       <c r="H6" t="n">
-        <v>411745.7837577907</v>
+        <v>411398.404503434</v>
       </c>
       <c r="I6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.404503434</v>
       </c>
       <c r="J6" t="n">
-        <v>194214.5813605135</v>
+        <v>193867.2021061564</v>
       </c>
       <c r="K6" t="n">
-        <v>411745.7837577909</v>
+        <v>411398.4045034341</v>
       </c>
       <c r="L6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.4045034337</v>
       </c>
       <c r="M6" t="n">
-        <v>326690.7558222794</v>
+        <v>326343.376567922</v>
       </c>
       <c r="N6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.4045034338</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.7837577908</v>
+        <v>411398.4045034338</v>
       </c>
       <c r="P6" t="n">
-        <v>411745.7837577909</v>
+        <v>411398.4045034338</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>287.9210818608657</v>
       </c>
       <c r="E2" t="n">
-        <v>17.30754642717415</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>154.8576191056866</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>176.4608497376796</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.755643479694754</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>142.0138769831756</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.47551747802324</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>172.1364021430104</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>113.0872986988034</v>
+        <v>323.3086325560367</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.825245211804</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,10 +33049,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>658.2124561388956</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175677</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>526.8707440555623</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37867,13 +37867,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1633909.870567004</v>
+        <v>1635670.40086979</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283201</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.76195975981727</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>393.0725963071112</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>128.4038356853009</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>131.3542190999263</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>152.5938874041449</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>47.41254713315882</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>78.961229153611</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>46.42246812243229</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487899</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.79687029691004</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>139.7414329637099</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>83.29550035394011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>206.690869499235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>73.44478684180565</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.01360035611808</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>30.06830131405845</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>126.6321535627874</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>67.63081821228944</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4312223122549</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="C2" t="n">
-        <v>1685.375546116517</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1306.412744518802</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>920.6244919205578</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>2473.40861130691</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>2304.472428379003</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>2154.355788966668</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>2006.442695384274</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1859.552747886364</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1691.849911261083</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U4" t="n">
-        <v>1794.613518694628</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="V4" t="n">
-        <v>1539.929030488741</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="W4" t="n">
-        <v>1250.51186045178</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>2875.84965528068</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>2655.05707613715</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2201.719078084899</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1832.756561144487</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1474.490862537737</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1088.702609939492</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>677.7167051498848</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>262.6442549948812</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149021</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2588.318918149021</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1879.403086337827</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1879.403086337827</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
         <v>1232.150970528558</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4843,13 +4843,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,46 +5047,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2411.187623003223</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841098</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,25 +6241,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>417.6289352913128</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2233.736227705813</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1944.661001050011</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1689.976512844124</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.559342807163</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1172.569791909146</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.7772127656159</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
@@ -6891,19 +6891,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1976.192826467915</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1721.508338262028</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>73.6241777260212</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>40.09054721822739</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>45.44677382459301</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66.51053793615077</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>187.3371490132298</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.5536561769547</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.40075786968241</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898840.2510292283</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
@@ -26337,25 +26337,25 @@
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.712987108883681e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.438655772290076e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993965.5468653586</v>
+        <v>-993965.5468653587</v>
       </c>
       <c r="C6" t="n">
-        <v>334779.1988622341</v>
+        <v>334779.1988622338</v>
       </c>
       <c r="D6" t="n">
-        <v>334779.1988622337</v>
+        <v>334779.1988622339</v>
       </c>
       <c r="E6" t="n">
-        <v>85985.94269607902</v>
+        <v>86298.58402500041</v>
       </c>
       <c r="F6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="G6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323551</v>
       </c>
       <c r="H6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="I6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="J6" t="n">
-        <v>193867.2021061564</v>
+        <v>194179.8434350778</v>
       </c>
       <c r="K6" t="n">
-        <v>411398.4045034341</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="L6" t="n">
-        <v>411398.4045034337</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="M6" t="n">
-        <v>326343.376567922</v>
+        <v>326656.0178968437</v>
       </c>
       <c r="N6" t="n">
-        <v>411398.4045034338</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="O6" t="n">
-        <v>411398.4045034338</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="P6" t="n">
-        <v>411398.4045034338</v>
+        <v>411711.0458323554</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,17 +26965,17 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>287.9210818608657</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13.80344943460022</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>16.35117922901983</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>154.8576191056866</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>142.0138769831756</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>172.1364021430104</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>286.3116626173966</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>323.3086325560367</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>190.707856698949</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>379.855198271042</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32320,19 +32320,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32721,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>405.0449047962161</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>242.013759296683</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
